--- a/Selected MCQs (Spring).xlsx
+++ b/Selected MCQs (Spring).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh\Desktop\mcq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\TechElevate\question-bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16390" windowHeight="5650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="340">
   <si>
     <t>What is spring?</t>
   </si>
@@ -894,12 +894,316 @@
   </si>
   <si>
     <t>AspectJ Pointcut</t>
+  </si>
+  <si>
+    <t>public class TestBean {
+private int year;
+private String happy;
+public TestBean( String happy,int year) {
+this.year = year;
+this.happy = happy;
+}
+}
+What is the correct way to write constructor injection?</t>
+  </si>
+  <si>
+    <t>&lt;bean name="testClass" class="com.bullraider.TestBean"&gt;
+&lt;constructor-arg type="java.lang.String" value="Happy new year"/&gt;
+&lt;constructor-arg type="int" value="2015"/&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean name="testClass" class="com.bullraider.TestBean"&gt;
+&lt;constructor-arg index="0" value="Happy new year"/&gt;
+&lt;constructor-arg index="1" value="2015"/&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean name="testClass" class="com.bullraider.TestBean"&gt;
+&lt;constructor-arg index="1" value="Happy new year"/&gt;
+&lt;constructor-arg index="0" value="2015"/&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean name="testClass" class="com.bullraider.TestBean"&gt;
+&lt;constructor-arg type="int" value="2015"/&gt;
+&lt;constructor-arg type="java.lang.String" value="Happy new year"/&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>All the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which  of the following are the correct way to nstantiating a Spring IoC container ?
+</t>
+  </si>
+  <si>
+    <t>ApplicationContext context = new ClassPathXmlApplicationContext(new String[] {"beans-definitions.xml"})
+BeanFactory factory = context;</t>
+  </si>
+  <si>
+    <t>XmlBeanFactory beanFactory=new XmlBeanFactory(new ClassPathResource("beans-definitions.xml"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanFactory fac=new ClassPathXmlApplicationContext("beans-definitions.xml");
+</t>
+  </si>
+  <si>
+    <t>Resource res=new Classpathresource("beans-definitions.xml");
+BeanFactory fac=new XmlBeanFactory(res);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public class Wheel{
+public Wheel(){
+System.out.println("wheel");
+{
+}
+public class Car {
+private Wheel wheelObj=null;
+public Car(Wheel wheelObj){
+this.wheelObj=wheelObj;
+}
+ public void setWheelObj(Wheel wheel){
+  this.wheelObj=wheel;
+  }
+  public Wheel getWheelObj(){
+  return wheelObj;
+  }
+}
+In the above  example, what are correct ways  to write inner bean?
+</t>
+  </si>
+  <si>
+    <t>&lt;bean id="wheelBean" class="com.bullraider.Car"&gt;
+&lt;constructor-arg&gt;
+&lt;bean name="wheel" class="com.bullraider.Wheel"&gt;
+&lt;property name="wheelObj" value="wheel"/&gt;
+&lt;/bean&gt;
+&lt;/constructor-arg&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="wheelBean" class="com.bullraider.Car"&gt;
+&lt;bean id="carBean" name="car" class="com.bullraider.Wheel"&gt;
+&lt;property name="wheelObj" value="wheel"/&gt;
+&lt;/bean&gt;
+&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;bean id="wheelBean" class="com.bullraider.Car"&gt;
+&lt;property name="wheel"&gt;
+&lt;bean name="wheel" class="com.bullraider.Wheel"&gt;
+&lt;property name="wheelObj" value="wheel"/&gt;
+&lt;/bean&gt;
+&lt;/property&gt;
+&lt;/bean&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;bean id="wheelBean" class="com.bullraider.Wheel"/&gt;
+&lt;bean id="carBean" name="car" class="com.bullraider.Car"&gt;
+&lt;property name="wheelObj" value="wheelBean"/&gt;
+&lt;/property&gt;
+&lt;/bean&gt;
+</t>
+  </si>
+  <si>
+    <t>public class Login
+{
+    1. *******************************
+    private String username;
+    2. *******************************
+    private String password;
+    //getter and setter method exists for all these properties
+}
+Which statement(s) insertion in the above code at Line 1 and 2 will validate the field values to 
+accept username of 3 characters only and password value of atleast 6 characters long.</t>
+  </si>
+  <si>
+    <t>@Size(min=3,max=3,message="Username must be 3 characters");</t>
+  </si>
+  <si>
+    <t>@Size(min=3,message="Username must be 3 characters");</t>
+  </si>
+  <si>
+    <t>@Size(min=6,message="Password must be atleast 6 characters long");</t>
+  </si>
+  <si>
+    <t>@Size(max=6,message="Password must be atleast 6 characters long");</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>Consider there is a class named as "Student.java" which is annotated with @Component and 
+the class exists in "com.cg.beans" package. Which code inclusion will detect this class?</t>
+  </si>
+  <si>
+    <t>Include &lt;context:component-scan base-package="com.cg.*" /&gt; in Spring configuration file</t>
+  </si>
+  <si>
+    <t>Include &lt;context:component-scan base-package="com.cg.beans" /&gt; in Spring configuration file</t>
+  </si>
+  <si>
+    <t>Annotated classes will be detected automatically.</t>
+  </si>
+  <si>
+    <t>Include &lt;context:component-scan base-package="com.cg.Student" /&gt; in web.xml</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Given below following URL "http://localhost:8080/SpringRESTFULMVC/movie/ironMan" 
+which of the method will call ?</t>
+  </si>
+  <si>
+    <t>@Controller
+@RequestMapping("/movie")
+public class MovieController {
+ @RequestMapping(value = "/{name}", method = RequestMethod.GET)
+ public String getMovie(@PathVariable String name, ModelMap model) {
+  model.addAttribute("movie", name);
+  return "list";
+ }</t>
+  </si>
+  <si>
+    <t>@Controller
+@RequestMapping("/movie")
+public class MovieController {
+ @RequestMapping(value = "/{uname}{name}", method = RequestMethod.GET)
+ public String getMovie(@PathVariable String name, ModelMap model) {
+  model.addAttribute("movie", name);
+  return "list";
+ }</t>
+  </si>
+  <si>
+    <t>@Controller
+@RequestMapping("/movie")
+public class MovieController {
+@RequestMapping(value = "/", method = RequestMethod.GET)
+ public String getDefaultMovie(ModelMap model) {
+  model.addAttribute("movie", "this is default movie");
+  return "list";
+ }}</t>
+  </si>
+  <si>
+    <t>@Controller
+@RequestMapping("/id")
+public class MovieController {
+ @RequestMapping(value = "/{name}", method = RequestMethod.GET)
+ public String getMovie(@PathVariable String name, ModelMap model) {
+  model.addAttribute("movie", name);
+  return "list";
+ }</t>
+  </si>
+  <si>
+    <t>@NamedQueries annotation on entity Student for which of the given syntax is correct to use
+fetching all student records from database?</t>
+  </si>
+  <si>
+    <t>@Entity
+@Table(name = "students")
+@NamedQueries(
+@NamedQuery(name = "getAllStudents", query = "SELECT student FROM Student student"))
+public class Student implements Serializable {  .............. }</t>
+  </si>
+  <si>
+    <t>@Entity
+@Table(name = "students")
+@NamedQuery(name = "getAllStudents", query = "SELECT student FROM Student student")
+public class Student implements Serializable {  .............. }</t>
+  </si>
+  <si>
+    <t>@Entity
+@Table(name = "students")
+@NamedQueries(
+name = "getAllStudents", query = "SELECT student FROM Student student")
+public class Student implements Serializable {  .............. }</t>
+  </si>
+  <si>
+    <t>@Entity
+@Table(name = "students")
+@NamedQueries(
+@NamedQuery(type = "getAllStudents", query = "SELECT student FROM Student student"))
+public class Student implements Serializable {  .............. }</t>
+  </si>
+  <si>
+    <t>Select the most appropriate code to create a Web service end-point interface:</t>
+  </si>
+  <si>
+    <t>@WebService
+public interface Book {
+ @WebMethod
+ float getPrice(String bookName);
+}</t>
+  </si>
+  <si>
+    <t>@WebMethod
+@SOAPBinding(style = Style.RPC)
+public interface Book {
+ @WebService
+ float getPrice(String bookName);
+}</t>
+  </si>
+  <si>
+    <t>@WebService
+@SOAPBinding(style = Style.RPC)
+public interface Book {
+ @WebMethod
+ float getPrice(String bookName);
+}</t>
+  </si>
+  <si>
+    <t>public interface Book {
+ @WebMethod
+ float getPrice(String bookName);
+}</t>
+  </si>
+  <si>
+    <t>@WebService
+public interface Book {
+ float getPrice(String bookName);
+}</t>
+  </si>
+  <si>
+    <t>Examine the below class:
+public class Employee
+{
+ public Employee(int empId, int age){
+  ....
+ }
+ ...
+}
+Consider Spring Configuration code snippet for the above class:
+&lt;bean id="employee" class="Employee"&gt;
+&lt;constructor-arg ___________ value="2001"/&gt;
+&lt;constructor-arg ___________ value="24"/&gt;
+&lt;/bean&gt;
+Select correct option(s) to fill the blank lines in the above code for completing the configuration 
+of the bean to inject values for the properties through constructor injection.</t>
+  </si>
+  <si>
+    <t>type="int"
+type="double"</t>
+  </si>
+  <si>
+    <t>index="0"
+index="1"</t>
+  </si>
+  <si>
+    <t>index="1"
+index="2"</t>
+  </si>
+  <si>
+    <t>order="0"
+order="1"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -907,18 +1211,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF272727"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -929,40 +1221,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF272727"/>
+      <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.5"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto Condensed"/>
+      <sz val="14"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Bahnschrift SemiLight"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +1284,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1015,38 +1338,74 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1353,623 +1712,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="96.6640625" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" customWidth="1"/>
-    <col min="3" max="3" width="130.5546875" customWidth="1"/>
-    <col min="4" max="4" width="121.6640625" customWidth="1"/>
-    <col min="5" max="5" width="102.5546875" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="96.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="99.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="130.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="121.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="102.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
         <v>139</v>
       </c>
@@ -1989,7 +2349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
         <v>142</v>
       </c>
@@ -2009,7 +2369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
         <v>146</v>
       </c>
@@ -2029,27 +2389,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6">
       <c r="A35" s="11" t="s">
         <v>154</v>
       </c>
@@ -2069,7 +2429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
         <v>157</v>
       </c>
@@ -2089,7 +2449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
         <v>162</v>
       </c>
@@ -2109,7 +2469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
         <v>167</v>
       </c>
@@ -2129,7 +2489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6">
       <c r="A39" s="11" t="s">
         <v>146</v>
       </c>
@@ -2145,11 +2505,11 @@
       <c r="E39" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6">
+    <row r="40" spans="1:6">
       <c r="A40" s="11" t="s">
         <v>171</v>
       </c>
@@ -2169,7 +2529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
         <v>175</v>
       </c>
@@ -2189,7 +2549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6">
       <c r="A42" s="11" t="s">
         <v>178</v>
       </c>
@@ -2209,7 +2569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6">
+    <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
         <v>183</v>
       </c>
@@ -2229,7 +2589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6">
+    <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
         <v>187</v>
       </c>
@@ -2249,7 +2609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6">
+    <row r="45" spans="1:6">
       <c r="A45" s="11" t="s">
         <v>190</v>
       </c>
@@ -2269,7 +2629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6">
+    <row r="46" spans="1:6">
       <c r="A46" s="11" t="s">
         <v>194</v>
       </c>
@@ -2289,7 +2649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6">
+    <row r="47" spans="1:6">
       <c r="A47" s="11" t="s">
         <v>195</v>
       </c>
@@ -2309,7 +2669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6">
+    <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
         <v>200</v>
       </c>
@@ -2329,7 +2689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6">
+    <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
         <v>204</v>
       </c>
@@ -2350,391 +2710,593 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="5" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="297.5">
+      <c r="A70" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="70">
+      <c r="A71" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="409.5">
+      <c r="A72" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="227.5">
+      <c r="A73" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="70">
+      <c r="A74" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="192.5">
+      <c r="A75" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="105">
+      <c r="A76" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="105">
+      <c r="A77" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="315">
+      <c r="A78" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +3318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2768,7 +3330,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
